--- a/biology/Médecine/Syndrome_de_Saethre-Chotzen/Syndrome_de_Saethre-Chotzen.xlsx
+++ b/biology/Médecine/Syndrome_de_Saethre-Chotzen/Syndrome_de_Saethre-Chotzen.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le syndrome de Saethre-Chotzen classique est une maladie génétique du groupe des craniosténoses. Elle associe une déformation du visage en rapport avec une soudure uni ou bilatérale précoce des sutures coronales avec une asymétrie faciale (surtout en cas de soudure unilatérale), un ptosis et des anomalies des oreilles: petit pavillon de l'oreille, et hélix supérieure ou inférieure proéminente. Il existe souvent une fusion des doigts ou syndactylie entre l'index et le majeur; une duplication de l'hallux. Une perte de l'audition mixte est rare mais significative dans le cadre de ce syndrome.
@@ -520,10 +532,12 @@
           <t>Sources</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>(en) Online Mendelian Inheritance in Man, OMIM (TM). Johns Hopkins University, Baltimore, MD. MIM Number: 101400 [1]
-(en) GeneTests: Medical Genetics Information Resource (database online). Copyright, University of Washington, Seattle. 1993-2005 [2]</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">(en) Online Mendelian Inheritance in Man, OMIM (TM). Johns Hopkins University, Baltimore, MD. MIM Number: 101400 
+(en) GeneTests: Medical Genetics Information Resource (database online). Copyright, University of Washington, Seattle. 1993-2005 </t>
         </is>
       </c>
     </row>
